--- a/2-Empirical-Evidence/raw_data/Wyoming.xlsx
+++ b/2-Empirical-Evidence/raw_data/Wyoming.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN560010000000003</t>
@@ -814,10 +830,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>5.1</v>
@@ -912,10 +940,20 @@
       <c r="AF5" t="n" s="10">
         <v>3.8</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>855.0</v>
@@ -1010,10 +1048,20 @@
       <c r="AF6" t="n" s="8">
         <v>772.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>697.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>637.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>559.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>15938.0</v>
@@ -1108,10 +1156,20 @@
       <c r="AF7" t="n" s="8">
         <v>19784.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>19931.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>20687.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>20932.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>16793.0</v>
@@ -1206,10 +1264,20 @@
       <c r="AF8" t="n" s="8">
         <v>20556.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>20628.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>21324.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>21491.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>5.7</v>
@@ -1304,10 +1372,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>281.0</v>
@@ -1402,10 +1480,20 @@
       <c r="AF10" t="n" s="8">
         <v>267.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>239.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>208.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>4610.0</v>
@@ -1500,10 +1588,20 @@
       <c r="AF11" t="n" s="8">
         <v>5021.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>5045.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>5030.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>4992.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>4891.0</v>
@@ -1598,10 +1696,20 @@
       <c r="AF12" t="n" s="8">
         <v>5288.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>5284.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>5238.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>5160.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>4.7</v>
@@ -1696,10 +1804,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>776.0</v>
@@ -1794,10 +1912,20 @@
       <c r="AF14" t="n" s="8">
         <v>1608.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>1161.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>776.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>623.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>15712.0</v>
@@ -1892,10 +2020,20 @@
       <c r="AF15" t="n" s="8">
         <v>21563.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>20761.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>22145.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>22726.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>16488.0</v>
@@ -1990,10 +2128,20 @@
       <c r="AF16" t="n" s="8">
         <v>23171.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>21922.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>22921.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>23349.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>5.0</v>
@@ -2088,10 +2236,20 @@
       <c r="AF17" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>442.0</v>
@@ -2186,10 +2344,20 @@
       <c r="AF18" t="n" s="8">
         <v>367.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>265.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>214.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>8424.0</v>
@@ -2284,10 +2452,20 @@
       <c r="AF19" t="n" s="8">
         <v>7551.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>7447.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>7200.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>7038.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>8866.0</v>
@@ -2382,10 +2560,20 @@
       <c r="AF20" t="n" s="8">
         <v>7918.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>7756.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>7465.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>7252.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.4</v>
@@ -2480,10 +2668,20 @@
       <c r="AF21" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>309.0</v>
@@ -2578,10 +2776,20 @@
       <c r="AF22" t="n" s="8">
         <v>483.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>5448.0</v>
@@ -2676,10 +2884,20 @@
       <c r="AF23" t="n" s="8">
         <v>7519.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>7127.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>7504.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>7521.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>5757.0</v>
@@ -2774,10 +2992,20 @@
       <c r="AF24" t="n" s="8">
         <v>8002.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>7492.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>7731.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>7701.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>3.0</v>
@@ -2872,10 +3100,20 @@
       <c r="AF25" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>81.0</v>
@@ -2970,10 +3208,20 @@
       <c r="AF26" t="n" s="8">
         <v>150.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>2611.0</v>
@@ -3068,10 +3316,20 @@
       <c r="AF27" t="n" s="8">
         <v>3687.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>3699.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>3831.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>3794.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>2692.0</v>
@@ -3166,10 +3424,20 @@
       <c r="AF28" t="n" s="8">
         <v>3837.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>3830.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>3944.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>3886.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>7.2</v>
@@ -3264,10 +3532,20 @@
       <c r="AF29" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>1139.0</v>
@@ -3362,10 +3640,20 @@
       <c r="AF30" t="n" s="8">
         <v>1200.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>897.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>730.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>646.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>14655.0</v>
@@ -3460,10 +3748,20 @@
       <c r="AF31" t="n" s="8">
         <v>17809.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>17917.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>18260.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>18451.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>15794.0</v>
@@ -3558,10 +3856,20 @@
       <c r="AF32" t="n" s="8">
         <v>19009.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>18814.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>18990.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>19097.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>4.4</v>
@@ -3656,10 +3964,20 @@
       <c r="AF33" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>262.0</v>
@@ -3754,10 +4072,20 @@
       <c r="AF34" t="n" s="8">
         <v>284.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>231.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>185.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>165.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>5717.0</v>
@@ -3852,10 +4180,20 @@
       <c r="AF35" t="n" s="8">
         <v>6216.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>6293.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>6362.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>6274.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>5979.0</v>
@@ -3950,10 +4288,20 @@
       <c r="AF36" t="n" s="8">
         <v>6500.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>6524.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>6547.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>6439.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>3.7</v>
@@ -4048,10 +4396,20 @@
       <c r="AF37" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>89.0</v>
@@ -4146,10 +4504,20 @@
       <c r="AF38" t="n" s="8">
         <v>111.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>2333.0</v>
@@ -4244,10 +4612,20 @@
       <c r="AF39" t="n" s="8">
         <v>2116.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>2165.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>2261.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>2273.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>2422.0</v>
@@ -4342,10 +4720,20 @@
       <c r="AF40" t="n" s="8">
         <v>2227.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>2254.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>2326.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>2333.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>4.6</v>
@@ -4440,10 +4828,20 @@
       <c r="AF41" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>159.0</v>
@@ -4538,10 +4936,20 @@
       <c r="AF42" t="n" s="8">
         <v>232.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>178.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>143.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>3274.0</v>
@@ -4636,10 +5044,20 @@
       <c r="AF43" t="n" s="8">
         <v>3939.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>4065.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>4196.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>4253.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>3433.0</v>
@@ -4734,10 +5152,20 @@
       <c r="AF44" t="n" s="8">
         <v>4171.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>4243.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>4339.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>4374.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>4.8</v>
@@ -4832,10 +5260,20 @@
       <c r="AF45" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1762.0</v>
@@ -4930,10 +5368,20 @@
       <c r="AF46" t="n" s="8">
         <v>2582.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>2006.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>1667.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>1451.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>35126.0</v>
@@ -5028,10 +5476,20 @@
       <c r="AF47" t="n" s="8">
         <v>47501.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>47054.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>46734.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>47438.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>36888.0</v>
@@ -5126,10 +5584,20 @@
       <c r="AF48" t="n" s="8">
         <v>50083.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>49060.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>48401.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>48889.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>6.1</v>
@@ -5224,10 +5692,20 @@
       <c r="AF49" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>352.0</v>
@@ -5322,10 +5800,20 @@
       <c r="AF50" t="n" s="8">
         <v>468.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>368.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>317.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>283.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>5451.0</v>
@@ -5420,10 +5908,20 @@
       <c r="AF51" t="n" s="8">
         <v>8819.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>9064.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>9406.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>9510.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>5803.0</v>
@@ -5518,10 +6016,20 @@
       <c r="AF52" t="n" s="8">
         <v>9287.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>9432.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>9723.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>9793.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>5.8</v>
@@ -5616,10 +6124,20 @@
       <c r="AF53" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1869.0</v>
@@ -5714,10 +6232,20 @@
       <c r="AF54" t="n" s="8">
         <v>3164.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>2345.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>1525.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>1253.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>30165.0</v>
@@ -5812,10 +6340,20 @@
       <c r="AF55" t="n" s="8">
         <v>36933.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>36401.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>37247.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>38349.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>32034.0</v>
@@ -5910,10 +6448,20 @@
       <c r="AF56" t="n" s="8">
         <v>40097.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>38746.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>38772.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>39602.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>3.6</v>
@@ -6008,10 +6556,20 @@
       <c r="AF57" t="n" s="10">
         <v>3.7</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>43.0</v>
@@ -6106,10 +6664,20 @@
       <c r="AF58" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>1145.0</v>
@@ -6204,10 +6772,20 @@
       <c r="AF59" t="n" s="8">
         <v>1186.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>1208.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>1189.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>1138.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>1188.0</v>
@@ -6302,10 +6880,20 @@
       <c r="AF60" t="n" s="8">
         <v>1232.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>1254.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>1223.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>1168.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>4.5</v>
@@ -6400,10 +6988,20 @@
       <c r="AF61" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>590.0</v>
@@ -6498,10 +7096,20 @@
       <c r="AF62" t="n" s="8">
         <v>825.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>645.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>537.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>451.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>12535.0</v>
@@ -6596,10 +7204,20 @@
       <c r="AF63" t="n" s="8">
         <v>14365.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>14799.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>15118.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>15306.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>13125.0</v>
@@ -6694,10 +7312,20 @@
       <c r="AF64" t="n" s="8">
         <v>15190.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>15444.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>15655.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>15757.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>4.9</v>
@@ -6792,10 +7420,20 @@
       <c r="AF65" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>189.0</v>
@@ -6890,10 +7528,20 @@
       <c r="AF66" t="n" s="8">
         <v>232.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>3696.0</v>
@@ -6988,10 +7636,20 @@
       <c r="AF67" t="n" s="8">
         <v>4345.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>4309.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>4294.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>4134.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>3885.0</v>
@@ -7086,10 +7744,20 @@
       <c r="AF68" t="n" s="8">
         <v>4577.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>4493.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>4443.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>4259.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>5.3</v>
@@ -7184,10 +7852,20 @@
       <c r="AF69" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>648.0</v>
@@ -7282,10 +7960,20 @@
       <c r="AF70" t="n" s="8">
         <v>801.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>684.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>521.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>443.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>11525.0</v>
@@ -7380,10 +8068,20 @@
       <c r="AF71" t="n" s="8">
         <v>15189.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>15299.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>15722.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>15843.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>12173.0</v>
@@ -7478,10 +8176,20 @@
       <c r="AF72" t="n" s="8">
         <v>15990.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>15983.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>16243.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>16286.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>2.6</v>
@@ -7576,10 +8284,20 @@
       <c r="AF73" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>70.0</v>
@@ -7674,10 +8392,20 @@
       <c r="AF74" t="n" s="8">
         <v>293.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>226.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>2610.0</v>
@@ -7772,10 +8500,20 @@
       <c r="AF75" t="n" s="8">
         <v>3725.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>3728.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>3807.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>3848.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>2680.0</v>
@@ -7870,10 +8608,20 @@
       <c r="AF76" t="n" s="8">
         <v>4018.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>3954.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>3963.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>3979.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>5.1</v>
@@ -7968,10 +8716,20 @@
       <c r="AF77" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1036.0</v>
@@ -8066,10 +8824,20 @@
       <c r="AF78" t="n" s="8">
         <v>1528.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1089.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>783.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>676.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>19416.0</v>
@@ -8164,10 +8932,20 @@
       <c r="AF79" t="n" s="8">
         <v>18973.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>18236.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>19115.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>19575.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>20452.0</v>
@@ -8262,10 +9040,20 @@
       <c r="AF80" t="n" s="8">
         <v>20501.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>19325.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>19898.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>20251.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>1.9</v>
@@ -8360,10 +9148,20 @@
       <c r="AF81" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>157.0</v>
@@ -8458,10 +9256,20 @@
       <c r="AF82" t="n" s="8">
         <v>895.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>521.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>437.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>372.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>8110.0</v>
@@ -8556,10 +9364,20 @@
       <c r="AF83" t="n" s="8">
         <v>14231.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>15368.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>16392.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>16955.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>8267.0</v>
@@ -8654,10 +9472,20 @@
       <c r="AF84" t="n" s="8">
         <v>15126.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>15889.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>16829.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>17327.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>6.3</v>
@@ -8752,10 +9580,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>629.0</v>
@@ -8850,10 +9688,20 @@
       <c r="AF86" t="n" s="8">
         <v>579.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>326.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>289.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>9315.0</v>
@@ -8948,10 +9796,20 @@
       <c r="AF87" t="n" s="8">
         <v>8521.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>8352.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>8691.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>8807.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>9944.0</v>
@@ -9046,10 +9904,20 @@
       <c r="AF88" t="n" s="8">
         <v>9100.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>8800.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>9017.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>9096.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>4.5</v>
@@ -9144,10 +10012,20 @@
       <c r="AF89" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>191.0</v>
@@ -9242,10 +10120,20 @@
       <c r="AF90" t="n" s="8">
         <v>208.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>4076.0</v>
@@ -9340,10 +10228,20 @@
       <c r="AF91" t="n" s="8">
         <v>3734.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>3774.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>3699.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>3716.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>4267.0</v>
@@ -9438,10 +10336,20 @@
       <c r="AF92" t="n" s="8">
         <v>3942.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>3934.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>3848.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>3843.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.2</v>
@@ -9536,10 +10444,20 @@
       <c r="AF93" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>142.0</v>
@@ -9634,10 +10552,20 @@
       <c r="AF94" t="n" s="8">
         <v>146.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>3200.0</v>
@@ -9732,10 +10660,20 @@
       <c r="AF95" t="n" s="8">
         <v>3640.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>3594.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>3725.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>3795.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>3342.0</v>
@@ -9830,6 +10768,16 @@
       <c r="AF96" t="n" s="8">
         <v>3786.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>3714.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>3823.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>3876.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9840,7 +10788,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (10:58:19 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:48:09 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
